--- a/data/quiz230904_tmp.xlsx
+++ b/data/quiz230904_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6028" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7702" uniqueCount="1827">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4391,6 +4391,1107 @@
   </si>
   <si>
     <t>김미소</t>
+  </si>
+  <si>
+    <t>dufud7004@naver.com</t>
+  </si>
+  <si>
+    <t>윤여령</t>
+  </si>
+  <si>
+    <t>taeseo12@naver.com</t>
+  </si>
+  <si>
+    <t>전자공학과</t>
+  </si>
+  <si>
+    <t>박태서</t>
+  </si>
+  <si>
+    <t>tkdgns8006@naver.com</t>
+  </si>
+  <si>
+    <t>이상훈</t>
+  </si>
+  <si>
+    <t>ybumma4@gmail.com</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>2050069140@qq.com</t>
+  </si>
+  <si>
+    <t>문화산업</t>
+  </si>
+  <si>
+    <t>LIU YANDAN</t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>seoj07070@gmail.com</t>
+  </si>
+  <si>
+    <t>경영하과</t>
+  </si>
+  <si>
+    <t>DONGZECHAO</t>
+  </si>
+  <si>
+    <t>jsk8070@naver.com</t>
+  </si>
+  <si>
+    <t>김세아</t>
+  </si>
+  <si>
+    <t>skyblue990080@gmail.com</t>
+  </si>
+  <si>
+    <t>윤나영</t>
+  </si>
+  <si>
+    <t>serf0403@naver.com</t>
+  </si>
+  <si>
+    <t>정예선</t>
+  </si>
+  <si>
+    <t>jonggwang0104@naver.com</t>
+  </si>
+  <si>
+    <t>박종광</t>
+  </si>
+  <si>
+    <t>gaddong0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김민균</t>
+  </si>
+  <si>
+    <t>bldrlsld@gmail.com</t>
+  </si>
+  <si>
+    <t>김규빈</t>
+  </si>
+  <si>
+    <t>parksiwoo1214@naver.com</t>
+  </si>
+  <si>
+    <t>박시우</t>
+  </si>
+  <si>
+    <t>sillysunny@naver.com</t>
+  </si>
+  <si>
+    <t>박세현</t>
+  </si>
+  <si>
+    <t>chs1886@naver.com</t>
+  </si>
+  <si>
+    <t>최현승</t>
+  </si>
+  <si>
+    <t>rkqls3333@gmail.com</t>
+  </si>
+  <si>
+    <t>권가빈</t>
+  </si>
+  <si>
+    <t>hyelinj27@gmail.com</t>
+  </si>
+  <si>
+    <t>진혜린</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>thsdlstn99@naver.com</t>
+  </si>
+  <si>
+    <t>이인수</t>
+  </si>
+  <si>
+    <t>xhaexeon@naver.com</t>
+  </si>
+  <si>
+    <t>aktnftk3520@naver.com</t>
+  </si>
+  <si>
+    <t>어수련</t>
+  </si>
+  <si>
+    <t>at79711@naver.com</t>
+  </si>
+  <si>
+    <t>데이터 사이언스</t>
+  </si>
+  <si>
+    <t>박재영</t>
+  </si>
+  <si>
+    <t>was193567@gmail.com</t>
+  </si>
+  <si>
+    <t>권유진</t>
+  </si>
+  <si>
+    <t>smile001118@naver.com</t>
+  </si>
+  <si>
+    <t>홍성준</t>
+  </si>
+  <si>
+    <t>khm1785@naver.com</t>
+  </si>
+  <si>
+    <t>김효민</t>
+  </si>
+  <si>
+    <t>sinfkks@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>김경진</t>
+  </si>
+  <si>
+    <t>seoseo2276@naver.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>wkdqls9988@gmail.com</t>
+  </si>
+  <si>
+    <t>장현빈</t>
+  </si>
+  <si>
+    <t>ssw12099@naver.com</t>
+  </si>
+  <si>
+    <t>소선웅</t>
+  </si>
+  <si>
+    <t>godis2002@naver.com</t>
+  </si>
+  <si>
+    <t>김승겸</t>
+  </si>
+  <si>
+    <t>suani3176@gmail.com</t>
+  </si>
+  <si>
+    <t>박수안</t>
+  </si>
+  <si>
+    <t>dlguswls0676@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>ckckguswns@naver.com</t>
+  </si>
+  <si>
+    <t>차현준</t>
+  </si>
+  <si>
+    <t>jinyoung05503@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>shonshon7@naver.com</t>
+  </si>
+  <si>
+    <t>임소연</t>
+  </si>
+  <si>
+    <t>audwlswlghd7@naver.com</t>
+  </si>
+  <si>
+    <t>신명진</t>
+  </si>
+  <si>
+    <t>freenix1001@naver.com</t>
+  </si>
+  <si>
+    <t>강서연</t>
+  </si>
+  <si>
+    <t>alsdk5161@naver.com</t>
+  </si>
+  <si>
+    <t>이민아</t>
+  </si>
+  <si>
+    <t>joon2622@naver.com</t>
+  </si>
+  <si>
+    <t>김준</t>
+  </si>
+  <si>
+    <t>jonahkim4415@gmail.com</t>
+  </si>
+  <si>
+    <t>김요나</t>
+  </si>
+  <si>
+    <t>namyh995@gmail.com</t>
+  </si>
+  <si>
+    <t>남윤혁</t>
+  </si>
+  <si>
+    <t>hankyo777@naver.com</t>
+  </si>
+  <si>
+    <t>장성주</t>
+  </si>
+  <si>
+    <t>mkdaniel2020@gmail.com</t>
+  </si>
+  <si>
+    <t>권다넬</t>
+  </si>
+  <si>
+    <t>jessica7096@naver.com</t>
+  </si>
+  <si>
+    <t>김보영</t>
+  </si>
+  <si>
+    <t>mu3218712@gmail.com</t>
+  </si>
+  <si>
+    <t>사학전공</t>
+  </si>
+  <si>
+    <t>이무원</t>
+  </si>
+  <si>
+    <t>snowy0601@naver.com</t>
+  </si>
+  <si>
+    <t>미디어스쿠</t>
+  </si>
+  <si>
+    <t>차연우</t>
+  </si>
+  <si>
+    <t>limsoowan@naver.com</t>
+  </si>
+  <si>
+    <t>임수완</t>
+  </si>
+  <si>
+    <t>naturally160@naver.com</t>
+  </si>
+  <si>
+    <t>홍지원</t>
+  </si>
+  <si>
+    <t>gmyeongju515@gmail.com</t>
+  </si>
+  <si>
+    <t>김명주</t>
+  </si>
+  <si>
+    <t>123qazwsx12@naver.com</t>
+  </si>
+  <si>
+    <t>전예진</t>
+  </si>
+  <si>
+    <t>sinjisu119@gmail.com</t>
+  </si>
+  <si>
+    <t>a01093819049@gmail.com</t>
+  </si>
+  <si>
+    <t>김서영</t>
+  </si>
+  <si>
+    <t>gahyun030405@gmail.com</t>
+  </si>
+  <si>
+    <t>윤가현</t>
+  </si>
+  <si>
+    <t>dlwogml2441@naver.com</t>
+  </si>
+  <si>
+    <t>이재희</t>
+  </si>
+  <si>
+    <t>pop8976@naver.com</t>
+  </si>
+  <si>
+    <t>최시현</t>
+  </si>
+  <si>
+    <t>mnsghn314@naver.com</t>
+  </si>
+  <si>
+    <t>문승현</t>
+  </si>
+  <si>
+    <t>ahnstar726@gmail.com</t>
+  </si>
+  <si>
+    <t>안태준</t>
+  </si>
+  <si>
+    <t>jhkang050107@gmail.com</t>
+  </si>
+  <si>
+    <t>강지희</t>
+  </si>
+  <si>
+    <t>lih3488@naver.com</t>
+  </si>
+  <si>
+    <t>이인혁</t>
+  </si>
+  <si>
+    <t>eksqk1234@naver.com</t>
+  </si>
+  <si>
+    <t>김정호</t>
+  </si>
+  <si>
+    <t>pmr0093@naver.com</t>
+  </si>
+  <si>
+    <t>박미래</t>
+  </si>
+  <si>
+    <t>jeh9599@gmail.com</t>
+  </si>
+  <si>
+    <t>정은혁</t>
+  </si>
+  <si>
+    <t>kimyebin0628@naver.com</t>
+  </si>
+  <si>
+    <t>김예빈</t>
+  </si>
+  <si>
+    <t>gabiekook040907@gmail.com</t>
+  </si>
+  <si>
+    <t>장형욱</t>
+  </si>
+  <si>
+    <t>skaguddl92@naver.com</t>
+  </si>
+  <si>
+    <t>컴퓨터공학과</t>
+  </si>
+  <si>
+    <t>김남형</t>
+  </si>
+  <si>
+    <t>qwer030815@naver.com</t>
+  </si>
+  <si>
+    <t>정은진</t>
+  </si>
+  <si>
+    <t>dndbql123@naver.com</t>
+  </si>
+  <si>
+    <t>전유비</t>
+  </si>
+  <si>
+    <t>mingye990410@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>ruye0114@naver.com</t>
+  </si>
+  <si>
+    <t>류영서</t>
+  </si>
+  <si>
+    <t>zuu3210@gmail.com</t>
+  </si>
+  <si>
+    <t>이수원</t>
+  </si>
+  <si>
+    <t>seominjun543@gmail.com</t>
+  </si>
+  <si>
+    <t>서민준</t>
+  </si>
+  <si>
+    <t>psmin0217@naver.com</t>
+  </si>
+  <si>
+    <t>박성민</t>
+  </si>
+  <si>
+    <t>pungnam04@gmail.com</t>
+  </si>
+  <si>
+    <t>이종민</t>
+  </si>
+  <si>
+    <t>dlwldms926@naver.com</t>
+  </si>
+  <si>
+    <t>이지은</t>
+  </si>
+  <si>
+    <t>youngprinceb612@gmail.com</t>
+  </si>
+  <si>
+    <t>송원혁</t>
+  </si>
+  <si>
+    <t>sea36987412@gmail.com</t>
+  </si>
+  <si>
+    <t>유세아</t>
+  </si>
+  <si>
+    <t>milovany03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회학과 </t>
+  </si>
+  <si>
+    <t>박진옥</t>
+  </si>
+  <si>
+    <t>sykim09050905@gmail.com</t>
+  </si>
+  <si>
+    <t>김승연</t>
+  </si>
+  <si>
+    <t>hyunjong9951@gmail.com</t>
+  </si>
+  <si>
+    <t>디스플레이학과</t>
+  </si>
+  <si>
+    <t>zra9751@naver.com</t>
+  </si>
+  <si>
+    <t>박찬모</t>
+  </si>
+  <si>
+    <t>janghangyeol0304@gmail.com</t>
+  </si>
+  <si>
+    <t>장한결</t>
+  </si>
+  <si>
+    <t>vjk92243@naver.com</t>
+  </si>
+  <si>
+    <t>백준열</t>
+  </si>
+  <si>
+    <t>limyoon0725@daum.net</t>
+  </si>
+  <si>
+    <t>임윤서</t>
+  </si>
+  <si>
+    <t>wjdcofla24@naver.com</t>
+  </si>
+  <si>
+    <t>정채림</t>
+  </si>
+  <si>
+    <t>codmsrjf@naver.com</t>
+  </si>
+  <si>
+    <t>정채은</t>
+  </si>
+  <si>
+    <t>plzmxn@naver.com</t>
+  </si>
+  <si>
+    <t>현상희</t>
+  </si>
+  <si>
+    <t>clara9398@naver.com</t>
+  </si>
+  <si>
+    <t>양은지</t>
+  </si>
+  <si>
+    <t>jgw1274@naver.com</t>
+  </si>
+  <si>
+    <t>정근원</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>yusoyun03@gmail.com</t>
+  </si>
+  <si>
+    <t>유소연</t>
+  </si>
+  <si>
+    <t>dldmlcks56@gmail.com</t>
+  </si>
+  <si>
+    <t>이의찬</t>
+  </si>
+  <si>
+    <t>goldmoon1217@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 - 콘텐츠IT전공(학과)</t>
+  </si>
+  <si>
+    <t>정진영</t>
+  </si>
+  <si>
+    <t>dennis121691@gmail.com</t>
+  </si>
+  <si>
+    <t>sdw0820@gmail.com</t>
+  </si>
+  <si>
+    <t>성동휘</t>
+  </si>
+  <si>
+    <t>psh6992@naver.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>bbbbqqqq1@naver.com</t>
+  </si>
+  <si>
+    <t>장은서</t>
+  </si>
+  <si>
+    <t>dlwlgy0001@naver.com</t>
+  </si>
+  <si>
+    <t>이지효</t>
+  </si>
+  <si>
+    <t>dlrmsdud0223@naver.com</t>
+  </si>
+  <si>
+    <t>이근영</t>
+  </si>
+  <si>
+    <t>6405street@naver.com</t>
+  </si>
+  <si>
+    <t>sanghyeongim33@naver.com</t>
+  </si>
+  <si>
+    <t>김상현</t>
+  </si>
+  <si>
+    <t>zzolle424@naver.com</t>
+  </si>
+  <si>
+    <t>전지호</t>
+  </si>
+  <si>
+    <t>limjaewoo0611@naver.com</t>
+  </si>
+  <si>
+    <t>yglee1357@naver.com</t>
+  </si>
+  <si>
+    <t>이윤구</t>
+  </si>
+  <si>
+    <t>yura5635@naver.com</t>
+  </si>
+  <si>
+    <t>이유라</t>
+  </si>
+  <si>
+    <t>rio040701@naver.com</t>
+  </si>
+  <si>
+    <t>홍은혜</t>
+  </si>
+  <si>
+    <t>duddms5818@naver.com</t>
+  </si>
+  <si>
+    <t>한영은</t>
+  </si>
+  <si>
+    <t>thals0308@naver.com</t>
+  </si>
+  <si>
+    <t>오소민</t>
+  </si>
+  <si>
+    <t>kmj02181004@gmail.com</t>
+  </si>
+  <si>
+    <t>ahn12025759@gmail.com</t>
+  </si>
+  <si>
+    <t>안채현</t>
+  </si>
+  <si>
+    <t>qwerty052799@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지는융합학부</t>
+  </si>
+  <si>
+    <t>박성현</t>
+  </si>
+  <si>
+    <t>halu365@naver.com</t>
+  </si>
+  <si>
+    <t>전교담</t>
+  </si>
+  <si>
+    <t>seizekim@naver.com</t>
+  </si>
+  <si>
+    <t>김종학</t>
+  </si>
+  <si>
+    <t>j1204yh@naver.com</t>
+  </si>
+  <si>
+    <t>정영호</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>dkfngusdn123@naver.com</t>
+  </si>
+  <si>
+    <t>장현우</t>
+  </si>
+  <si>
+    <t>rlawlsvy234@gmail.com</t>
+  </si>
+  <si>
+    <t>김진표</t>
+  </si>
+  <si>
+    <t>psb5150@naver.com</t>
+  </si>
+  <si>
+    <t>박수빈</t>
+  </si>
+  <si>
+    <t>rlagkdud114@naver.com</t>
+  </si>
+  <si>
+    <t>김하영</t>
+  </si>
+  <si>
+    <t>20233814@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>onlywon1207@naver.com</t>
+  </si>
+  <si>
+    <t>백경원</t>
+  </si>
+  <si>
+    <t>jinny8014@naver.com</t>
+  </si>
+  <si>
+    <t>kangsamy2@gmail.com</t>
+  </si>
+  <si>
+    <t>강새미</t>
+  </si>
+  <si>
+    <t>cba05049@naver.com</t>
+  </si>
+  <si>
+    <t>박상우</t>
+  </si>
+  <si>
+    <t>kim3ryun@gmail.com</t>
+  </si>
+  <si>
+    <t>김세륜</t>
+  </si>
+  <si>
+    <t>emily_2003@naver.com</t>
+  </si>
+  <si>
+    <t>천예령</t>
+  </si>
+  <si>
+    <t>chagaeun0906@gmail.com</t>
+  </si>
+  <si>
+    <t>최가은</t>
+  </si>
+  <si>
+    <t>wasabi0724@naver.com</t>
+  </si>
+  <si>
+    <t>홍지윤</t>
+  </si>
+  <si>
+    <t>kongpo7097@gmail.com</t>
+  </si>
+  <si>
+    <t>장예현</t>
+  </si>
+  <si>
+    <t>sun03353@gmail.com</t>
+  </si>
+  <si>
+    <t>a90937517@gmail.com</t>
+  </si>
+  <si>
+    <t>김현영</t>
+  </si>
+  <si>
+    <t>bulbap03@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스 학부</t>
+  </si>
+  <si>
+    <t>변성혁</t>
+  </si>
+  <si>
+    <t>seohonglimmm@gmail.com</t>
+  </si>
+  <si>
+    <t>임서홍</t>
+  </si>
+  <si>
+    <t>qkrguswns318@naver.com</t>
+  </si>
+  <si>
+    <t>박현준</t>
+  </si>
+  <si>
+    <t>sjy020310@naver.com</t>
+  </si>
+  <si>
+    <t>송진용</t>
+  </si>
+  <si>
+    <t>rkdtmdrn1018@naver.com</t>
+  </si>
+  <si>
+    <t>강승구</t>
+  </si>
+  <si>
+    <t>kimuijin33@gmail.com</t>
+  </si>
+  <si>
+    <t>김의진</t>
+  </si>
+  <si>
+    <t>gata0523@gmail.com</t>
+  </si>
+  <si>
+    <t>서형록</t>
+  </si>
+  <si>
+    <t>tjdals041122@gmail.com</t>
+  </si>
+  <si>
+    <t>전성민</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.com</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>44gayo7@gmail.com</t>
+  </si>
+  <si>
+    <t>이정민</t>
+  </si>
+  <si>
+    <t>yoodj4424@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>유동재</t>
+  </si>
+  <si>
+    <t>wlalsdlcjm4@naver.com</t>
+  </si>
+  <si>
+    <t>차지민</t>
+  </si>
+  <si>
+    <t>20233817@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>sio0406@naver.com</t>
+  </si>
+  <si>
+    <t>이소이</t>
+  </si>
+  <si>
+    <t>tjdalsqkdrk@gmail.com</t>
+  </si>
+  <si>
+    <t>오성민</t>
+  </si>
+  <si>
+    <t>kgh15820@naver.com</t>
+  </si>
+  <si>
+    <t>김가현</t>
+  </si>
+  <si>
+    <t>00kimdayeon@naver.com</t>
+  </si>
+  <si>
+    <t>김다연</t>
+  </si>
+  <si>
+    <t>siddlzh6636@gmail.com</t>
+  </si>
+  <si>
+    <t>alzm09123@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘첸츠전공</t>
+  </si>
+  <si>
+    <t>정지영</t>
+  </si>
+  <si>
+    <t>pcb20043935@gmail.com</t>
+  </si>
+  <si>
+    <t>박찬빈</t>
+  </si>
+  <si>
+    <t>foxhslee@naver.com</t>
+  </si>
+  <si>
+    <t>이효성</t>
+  </si>
+  <si>
+    <t>kimi9923@naver.com</t>
+  </si>
+  <si>
+    <t>정민우</t>
+  </si>
+  <si>
+    <t>choijoonhyuk1412@naver.com</t>
+  </si>
+  <si>
+    <t>yena8546@naver.com</t>
+  </si>
+  <si>
+    <t>장예나</t>
+  </si>
+  <si>
+    <t>kimlee0411@naver.com</t>
+  </si>
+  <si>
+    <t>사화복지학부</t>
+  </si>
+  <si>
+    <t>yenahpark@naver.com</t>
+  </si>
+  <si>
+    <t>박예나</t>
+  </si>
+  <si>
+    <t>knrgirl1223@gmail.com</t>
+  </si>
+  <si>
+    <t>김나래</t>
+  </si>
+  <si>
+    <t>6893rlawns@gmail.com</t>
+  </si>
+  <si>
+    <t>hwangyejin2000@gmail.com</t>
+  </si>
+  <si>
+    <t>황예진</t>
+  </si>
+  <si>
+    <t>chm040305@naver.com</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>kim061806@naver.com</t>
+  </si>
+  <si>
+    <t>김윤서</t>
+  </si>
+  <si>
+    <t>dlgusdnr4580@naver.com</t>
+  </si>
+  <si>
+    <t>이현욱</t>
+  </si>
+  <si>
+    <t>leegijae040209@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤</t>
+  </si>
+  <si>
+    <t>041030top@naver.com</t>
+  </si>
+  <si>
+    <t>최영국</t>
+  </si>
+  <si>
+    <t>dksdksqh1018@naver.com</t>
+  </si>
+  <si>
+    <t>안보민</t>
+  </si>
+  <si>
+    <t>kt6714@naver.com</t>
+  </si>
+  <si>
+    <t>강경태</t>
+  </si>
+  <si>
+    <t>sjmh2910@daum.net</t>
+  </si>
+  <si>
+    <t>이상민</t>
+  </si>
+  <si>
+    <t>obj2107@gmail.com</t>
+  </si>
+  <si>
+    <t>오병웅</t>
+  </si>
+  <si>
+    <t>sojeong12177@gmail.com</t>
+  </si>
+  <si>
+    <t>소정</t>
+  </si>
+  <si>
+    <t>ptmosm@naver.com</t>
+  </si>
+  <si>
+    <t>030405</t>
+  </si>
+  <si>
+    <t>guswhd1414@naver.com</t>
+  </si>
+  <si>
+    <t>0227jsh@naver.com</t>
+  </si>
+  <si>
+    <t>장서희</t>
+  </si>
+  <si>
+    <t>chldmlgus12@naver.com</t>
+  </si>
+  <si>
+    <t>최의현</t>
+  </si>
+  <si>
+    <t>lgb4750@naver.com</t>
+  </si>
+  <si>
+    <t>반도체-디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>fpwlsk6021@gmail.com</t>
+  </si>
+  <si>
+    <t>최효빈</t>
+  </si>
+  <si>
+    <t>parkjiune@naver.com</t>
+  </si>
+  <si>
+    <t>y23220124@gmail.com</t>
+  </si>
+  <si>
+    <t>cje03112@naver.com</t>
+  </si>
+  <si>
+    <t>최민석</t>
+  </si>
+  <si>
+    <t>me_ruddlqslek@naver.com</t>
+  </si>
+  <si>
+    <t>홍나경</t>
   </si>
 </sst>
 </file>
@@ -4427,7 +5528,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4436,6 +5537,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -32092,6 +33196,7632 @@
         <v>40</v>
       </c>
     </row>
+    <row r="670">
+      <c r="A670" s="2">
+        <v>45184.379308275464</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D670" s="3">
+        <v>2.0236269E7</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F670" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H670" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I670" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J670" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K670" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L670" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N670" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2">
+        <v>45184.42212609954</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D671" s="3">
+        <v>2.0175224E7</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F671" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H671" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I671" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J671" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K671" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L671" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N671" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2">
+        <v>45184.4342105324</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D672" s="3">
+        <v>2.0207035E7</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H672" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I672" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J672" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K672" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L672" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N672" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2">
+        <v>45184.43803659722</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D673" s="3">
+        <v>2.0226152E7</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H673" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I673" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J673" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K673" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L673" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M673" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2">
+        <v>45184.44331621528</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D674" s="3">
+        <v>2.0218006E7</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H674" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I674" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J674" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K674" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L674" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M674" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2">
+        <v>45184.49586431713</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D675" s="3">
+        <v>2.0195157E7</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H675" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I675" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J675" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K675" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L675" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N675" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2">
+        <v>45184.509133680556</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D676" s="3">
+        <v>2.0218001E7</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F676" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H676" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I676" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J676" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K676" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L676" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M676" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2">
+        <v>45184.52733913195</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D677" s="3">
+        <v>2.0207064E7</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F677" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H677" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I677" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J677" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K677" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L677" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M677" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2">
+        <v>45184.52919538194</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D678" s="3">
+        <v>2.0233828E7</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H678" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I678" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J678" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K678" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L678" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N678" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2">
+        <v>45184.568702662036</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D679" s="3">
+        <v>2.0193646E7</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H679" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I679" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J679" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K679" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L679" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M679" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2">
+        <v>45184.58802516204</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D680" s="3">
+        <v>2.018382E7</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F680" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H680" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I680" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J680" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K680" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L680" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M680" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2">
+        <v>45184.670791122684</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D681" s="3">
+        <v>2.0232106E7</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F681" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G681" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H681" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I681" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J681" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K681" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L681" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M681" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2">
+        <v>45184.6730621412</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D682" s="3">
+        <v>2.0221603E7</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F682" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G682" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H682" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I682" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J682" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K682" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L682" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N682" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2">
+        <v>45184.69003398148</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D683" s="3">
+        <v>2.0193219E7</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F683" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G683" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H683" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I683" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J683" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K683" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L683" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N683" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2">
+        <v>45184.693758622685</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D684" s="3">
+        <v>2.0231037E7</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F684" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G684" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H684" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I684" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J684" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K684" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L684" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N684" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2">
+        <v>45184.70660409722</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D685" s="3">
+        <v>2.0193009E7</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F685" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H685" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I685" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J685" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K685" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L685" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M685" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2">
+        <v>45184.711221481484</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D686" s="3">
+        <v>2.0236205E7</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F686" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H686" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I686" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J686" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K686" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L686" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M686" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2">
+        <v>45184.72002194445</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D687" s="3">
+        <v>2.0236781E7</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F687" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H687" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I687" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J687" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K687" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L687" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N687" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2">
+        <v>45184.73387484954</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D688" s="3">
+        <v>2.0212233E7</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F688" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H688" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I688" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J688" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K688" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L688" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N688" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2">
+        <v>45184.76057534722</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D689" s="3">
+        <v>2.0226647E7</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F689" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H689" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I689" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J689" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K689" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L689" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M689" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2">
+        <v>45184.798411111115</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D690" s="3">
+        <v>2.0182749E7</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F690" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H690" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I690" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J690" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K690" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L690" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N690" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2">
+        <v>45184.801712291664</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D691" s="3">
+        <v>2.021221E7</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F691" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H691" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I691" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J691" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K691" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L691" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M691" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2">
+        <v>45184.84388097222</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D692" s="3">
+        <v>2.0236628E7</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F692" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H692" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I692" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J692" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K692" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L692" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M692" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2">
+        <v>45184.84937805556</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D693" s="3">
+        <v>2.023322E7</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F693" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H693" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I693" s="3">
+        <v>2021.0</v>
+      </c>
+      <c r="J693" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K693" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L693" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N693" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2">
+        <v>45184.854955</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D694" s="3">
+        <v>2.0233303E7</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F694" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H694" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I694" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J694" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K694" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L694" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N694" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2">
+        <v>45184.86428835648</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D695" s="3">
+        <v>2.022224E7</v>
+      </c>
+      <c r="E695" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F695" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H695" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I695" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J695" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K695" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L695" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M695" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2">
+        <v>45184.90934520833</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D696" s="3">
+        <v>2.0236233E7</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F696" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H696" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I696" s="3">
+        <v>2021.0</v>
+      </c>
+      <c r="J696" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K696" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L696" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M696" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2">
+        <v>45184.912689537035</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D697" s="3">
+        <v>2.0233304E7</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F697" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G697" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H697" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I697" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J697" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K697" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L697" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N697" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2">
+        <v>45185.10440773148</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D698" s="3">
+        <v>2.0233044E7</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F698" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H698" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I698" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J698" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K698" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L698" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N698" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2">
+        <v>45185.10591762731</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D699" s="3">
+        <v>2.0233934E7</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F699" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G699" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H699" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I699" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J699" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K699" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L699" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N699" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2">
+        <v>45185.17058549769</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D700" s="3">
+        <v>2.0185288E7</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F700" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G700" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H700" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I700" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J700" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K700" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L700" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M700" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2">
+        <v>45185.42291333333</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D701" s="3">
+        <v>2.023519E7</v>
+      </c>
+      <c r="E701" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F701" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G701" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H701" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I701" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J701" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K701" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L701" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M701" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2">
+        <v>45185.54036623843</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D702" s="3">
+        <v>2.0211706E7</v>
+      </c>
+      <c r="E702" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F702" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G702" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H702" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I702" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J702" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K702" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L702" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M702" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2">
+        <v>45185.54178608797</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D703" s="3">
+        <v>2.0232328E7</v>
+      </c>
+      <c r="E703" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F703" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H703" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I703" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J703" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K703" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L703" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N703" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2">
+        <v>45185.54806864583</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D704" s="3">
+        <v>2.0182517E7</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F704" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G704" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H704" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I704" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J704" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K704" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L704" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M704" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2">
+        <v>45185.55600703704</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D705" s="3">
+        <v>2.0171078E7</v>
+      </c>
+      <c r="E705" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F705" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G705" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H705" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I705" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J705" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K705" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L705" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N705" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2">
+        <v>45185.57200694444</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D706" s="3">
+        <v>2.0192233E7</v>
+      </c>
+      <c r="E706" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F706" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G706" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H706" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I706" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J706" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K706" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L706" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N706" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2">
+        <v>45185.583513935184</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D707" s="3">
+        <v>2.0233534E7</v>
+      </c>
+      <c r="E707" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F707" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G707" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H707" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I707" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J707" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K707" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L707" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N707" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2">
+        <v>45185.58965401621</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D708" s="3">
+        <v>2.0231079E7</v>
+      </c>
+      <c r="E708" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F708" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G708" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H708" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I708" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J708" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K708" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L708" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M708" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2">
+        <v>45185.63542569445</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D709" s="3">
+        <v>2.0192902E7</v>
+      </c>
+      <c r="E709" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F709" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G709" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H709" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I709" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J709" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K709" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L709" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M709" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2">
+        <v>45185.69003854167</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D710" s="3">
+        <v>2.0233903E7</v>
+      </c>
+      <c r="E710" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F710" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G710" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H710" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I710" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J710" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K710" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L710" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M710" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2">
+        <v>45185.71604789352</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D711" s="3">
+        <v>2.0192225E7</v>
+      </c>
+      <c r="E711" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F711" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H711" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I711" s="3">
+        <v>2021.0</v>
+      </c>
+      <c r="J711" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K711" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L711" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N711" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2">
+        <v>45185.74371946759</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D712" s="3">
+        <v>2.020241E7</v>
+      </c>
+      <c r="E712" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F712" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H712" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I712" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J712" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K712" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L712" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N712" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2">
+        <v>45185.74904922454</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D713" s="3">
+        <v>2.0223409E7</v>
+      </c>
+      <c r="E713" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F713" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H713" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I713" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J713" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K713" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L713" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N713" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2">
+        <v>45185.76620010417</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D714" s="3">
+        <v>2.0233217E7</v>
+      </c>
+      <c r="E714" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F714" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H714" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I714" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J714" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K714" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L714" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M714" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2">
+        <v>45185.76898940973</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D715" s="3">
+        <v>2.0233244E7</v>
+      </c>
+      <c r="E715" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F715" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H715" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I715" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J715" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K715" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L715" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N715" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2">
+        <v>45185.825390439815</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D716" s="3">
+        <v>2.0226403E7</v>
+      </c>
+      <c r="E716" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F716" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H716" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I716" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J716" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K716" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L716" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N716" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2">
+        <v>45185.83723797454</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D717" s="3">
+        <v>2.0221705E7</v>
+      </c>
+      <c r="E717" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F717" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H717" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I717" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J717" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K717" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L717" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N717" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2">
+        <v>45185.83993804398</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D718" s="3">
+        <v>2.0211061E7</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F718" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H718" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I718" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J718" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K718" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L718" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N718" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2">
+        <v>45185.85627780092</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D719" s="3">
+        <v>2.0232582E7</v>
+      </c>
+      <c r="E719" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F719" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G719" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H719" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I719" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J719" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K719" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L719" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M719" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2">
+        <v>45185.87333091436</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D720" s="3">
+        <v>2.0224138E7</v>
+      </c>
+      <c r="E720" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F720" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G720" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H720" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I720" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J720" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K720" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L720" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M720" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2">
+        <v>45185.909016157406</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D721" s="3">
+        <v>2.0233852E7</v>
+      </c>
+      <c r="E721" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F721" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H721" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I721" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J721" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K721" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L721" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N721" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2">
+        <v>45185.92402414352</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D722" s="3">
+        <v>2.0213606E7</v>
+      </c>
+      <c r="E722" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F722" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H722" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I722" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J722" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K722" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L722" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N722" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2">
+        <v>45185.95919508101</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D723" s="3">
+        <v>2.0233029E7</v>
+      </c>
+      <c r="E723" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F723" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H723" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I723" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J723" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K723" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L723" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N723" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2">
+        <v>45185.99462525463</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D724" s="3">
+        <v>2.0222728E7</v>
+      </c>
+      <c r="E724" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F724" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H724" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I724" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J724" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K724" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L724" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M724" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2">
+        <v>45186.00215813657</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D725" s="3">
+        <v>2.0212608E7</v>
+      </c>
+      <c r="E725" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F725" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G725" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H725" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I725" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J725" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K725" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L725" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N725" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2">
+        <v>45186.029500856486</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D726" s="3">
+        <v>2.0236419E7</v>
+      </c>
+      <c r="E726" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F726" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H726" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I726" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J726" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K726" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L726" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N726" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2">
+        <v>45186.04307947917</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D727" s="3">
+        <v>2.0232351E7</v>
+      </c>
+      <c r="E727" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F727" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H727" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I727" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J727" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K727" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L727" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M727" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2">
+        <v>45186.05100582176</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D728" s="3">
+        <v>2.0232756E7</v>
+      </c>
+      <c r="E728" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F728" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H728" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I728" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J728" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K728" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L728" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M728" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2">
+        <v>45186.08831375</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D729" s="3">
+        <v>2.0235159E7</v>
+      </c>
+      <c r="E729" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F729" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H729" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I729" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J729" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K729" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L729" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M729" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2">
+        <v>45186.10000560185</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D730" s="3">
+        <v>2.0233938E7</v>
+      </c>
+      <c r="E730" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F730" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H730" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I730" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J730" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K730" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L730" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M730" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2">
+        <v>45186.13641262731</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D731" s="3">
+        <v>2.0236203E7</v>
+      </c>
+      <c r="E731" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F731" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H731" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I731" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J731" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K731" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L731" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M731" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2">
+        <v>45186.19494729167</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D732" s="3">
+        <v>2.0192953E7</v>
+      </c>
+      <c r="E732" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F732" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H732" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I732" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J732" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K732" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L732" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N732" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2">
+        <v>45186.32552309027</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D733" s="3">
+        <v>2.0235143E7</v>
+      </c>
+      <c r="E733" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F733" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G733" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H733" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I733" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J733" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K733" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L733" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M733" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2">
+        <v>45186.439191921294</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D734" s="3">
+        <v>2.0236609E7</v>
+      </c>
+      <c r="E734" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F734" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G734" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H734" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I734" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J734" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K734" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L734" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M734" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2">
+        <v>45186.46631524306</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D735" s="3">
+        <v>2.0192319E7</v>
+      </c>
+      <c r="E735" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F735" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G735" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H735" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I735" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J735" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K735" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L735" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M735" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2">
+        <v>45186.489730138885</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D736" s="3">
+        <v>2.0235256E7</v>
+      </c>
+      <c r="E736" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F736" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G736" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H736" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I736" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J736" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K736" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L736" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N736" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2">
+        <v>45186.50223508102</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D737" s="3">
+        <v>2.0202711E7</v>
+      </c>
+      <c r="E737" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F737" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H737" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I737" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J737" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K737" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L737" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N737" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2">
+        <v>45186.50974140046</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D738" s="3">
+        <v>2.0232356E7</v>
+      </c>
+      <c r="E738" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F738" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H738" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I738" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J738" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K738" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L738" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M738" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2">
+        <v>45186.52516746528</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D739" s="3">
+        <v>2.017511E7</v>
+      </c>
+      <c r="E739" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F739" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G739" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H739" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I739" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J739" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K739" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L739" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M739" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2">
+        <v>45186.544514803245</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D740" s="3">
+        <v>2.0223639E7</v>
+      </c>
+      <c r="E740" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F740" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G740" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H740" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I740" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J740" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K740" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L740" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N740" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2">
+        <v>45186.54858505787</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D741" s="3">
+        <v>2.0232574E7</v>
+      </c>
+      <c r="E741" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F741" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G741" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H741" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I741" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J741" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K741" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L741" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M741" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2">
+        <v>45186.57621289352</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D742" s="3">
+        <v>2.0183639E7</v>
+      </c>
+      <c r="E742" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F742" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G742" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H742" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I742" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J742" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K742" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L742" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M742" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2">
+        <v>45186.578483425925</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D743" s="3">
+        <v>2.0232214E7</v>
+      </c>
+      <c r="E743" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F743" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G743" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H743" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I743" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J743" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K743" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L743" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N743" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2">
+        <v>45186.59199822917</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D744" s="3">
+        <v>2.018263E7</v>
+      </c>
+      <c r="E744" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F744" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G744" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H744" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I744" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J744" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K744" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L744" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M744" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2">
+        <v>45186.59431901621</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D745" s="3">
+        <v>2.0235183E7</v>
+      </c>
+      <c r="E745" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F745" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G745" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H745" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I745" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J745" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K745" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L745" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N745" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2">
+        <v>45186.60980575232</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D746" s="3">
+        <v>2.0215155E7</v>
+      </c>
+      <c r="E746" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F746" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G746" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H746" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I746" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J746" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K746" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L746" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M746" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2">
+        <v>45186.61984621528</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D747" s="3">
+        <v>2.0235242E7</v>
+      </c>
+      <c r="E747" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F747" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G747" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H747" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I747" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J747" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K747" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L747" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N747" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2">
+        <v>45186.624789884256</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D748" s="3">
+        <v>2.0222624E7</v>
+      </c>
+      <c r="E748" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F748" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G748" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H748" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I748" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J748" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K748" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L748" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N748" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2">
+        <v>45186.62559596065</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D749" s="3">
+        <v>2.0233936E7</v>
+      </c>
+      <c r="E749" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F749" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G749" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H749" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I749" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J749" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K749" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L749" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N749" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2">
+        <v>45186.63017458333</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D750" s="3">
+        <v>2.0235213E7</v>
+      </c>
+      <c r="E750" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F750" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G750" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H750" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I750" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J750" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K750" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L750" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M750" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2">
+        <v>45186.6303334838</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D751" s="3">
+        <v>2.0202223E7</v>
+      </c>
+      <c r="E751" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F751" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G751" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H751" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I751" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J751" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K751" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L751" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N751" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2">
+        <v>45186.632582025464</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D752" s="3">
+        <v>2.0236223E7</v>
+      </c>
+      <c r="E752" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F752" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G752" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H752" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I752" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J752" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K752" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L752" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N752" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2">
+        <v>45186.64462811343</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D753" s="3">
+        <v>2.0183319E7</v>
+      </c>
+      <c r="E753" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F753" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G753" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H753" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I753" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J753" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K753" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L753" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N753" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2">
+        <v>45186.648447997686</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D754" s="3">
+        <v>2.0202965E7</v>
+      </c>
+      <c r="E754" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F754" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G754" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H754" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I754" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J754" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K754" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L754" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M754" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2">
+        <v>45186.652332812504</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D755" s="3">
+        <v>2.0222838E7</v>
+      </c>
+      <c r="E755" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F755" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G755" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H755" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I755" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J755" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K755" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L755" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M755" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2">
+        <v>45186.654891412036</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D756" s="3">
+        <v>2.0233521E7</v>
+      </c>
+      <c r="E756" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F756" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G756" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H756" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I756" s="3">
+        <v>2021.0</v>
+      </c>
+      <c r="J756" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K756" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L756" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N756" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2">
+        <v>45186.65616458333</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D757" s="3">
+        <v>2.0222347E7</v>
+      </c>
+      <c r="E757" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F757" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G757" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H757" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I757" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J757" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K757" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L757" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M757" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2">
+        <v>45186.65861371528</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D758" s="3">
+        <v>2.0211726E7</v>
+      </c>
+      <c r="E758" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F758" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G758" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H758" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I758" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J758" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K758" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L758" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N758" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2">
+        <v>45186.66390329861</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D759" s="3">
+        <v>2.0205253E7</v>
+      </c>
+      <c r="E759" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F759" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G759" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H759" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I759" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J759" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K759" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L759" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N759" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2">
+        <v>45186.667584560186</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D760" s="3">
+        <v>2.0232642E7</v>
+      </c>
+      <c r="E760" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F760" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G760" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H760" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I760" s="3">
+        <v>2021.0</v>
+      </c>
+      <c r="J760" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K760" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L760" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N760" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2">
+        <v>45186.679613541666</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D761" s="3">
+        <v>2.0232552E7</v>
+      </c>
+      <c r="E761" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F761" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G761" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H761" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I761" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J761" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K761" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L761" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N761" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2">
+        <v>45186.68136939815</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D762" s="3">
+        <v>2.0223427E7</v>
+      </c>
+      <c r="E762" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F762" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G762" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H762" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I762" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J762" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K762" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L762" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N762" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2">
+        <v>45186.68400807871</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D763" s="3">
+        <v>2.0205265E7</v>
+      </c>
+      <c r="E763" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F763" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G763" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H763" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I763" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J763" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K763" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L763" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M763" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2">
+        <v>45186.693166620375</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D764" s="3">
+        <v>2.0236745E7</v>
+      </c>
+      <c r="E764" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F764" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G764" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H764" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I764" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J764" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K764" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L764" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N764" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2">
+        <v>45186.698263900464</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D765" s="3">
+        <v>2.0173144E7</v>
+      </c>
+      <c r="E765" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F765" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G765" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H765" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I765" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J765" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K765" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L765" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N765" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2">
+        <v>45186.701851817124</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D766" s="3">
+        <v>2.0205252E7</v>
+      </c>
+      <c r="E766" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F766" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G766" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H766" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I766" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J766" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K766" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L766" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N766" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2">
+        <v>45186.70898725695</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D767" s="3">
+        <v>2.0203224E7</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F767" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G767" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H767" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I767" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J767" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K767" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L767" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M767" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2">
+        <v>45186.7106194213</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D768" s="3">
+        <v>2.0233819E7</v>
+      </c>
+      <c r="E768" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F768" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G768" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H768" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I768" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J768" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K768" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L768" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M768" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2">
+        <v>45186.71128387732</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D769" s="3">
+        <v>2.0212212E7</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F769" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G769" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H769" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I769" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J769" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K769" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L769" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M769" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2">
+        <v>45186.71312613426</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D770" s="3">
+        <v>2.0233246E7</v>
+      </c>
+      <c r="E770" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F770" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G770" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H770" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I770" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J770" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K770" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L770" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M770" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2">
+        <v>45186.71649050926</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D771" s="3">
+        <v>2.0203024E7</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F771" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G771" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H771" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I771" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J771" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K771" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L771" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N771" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2">
+        <v>45186.717561770834</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D772" s="3">
+        <v>2.0233234E7</v>
+      </c>
+      <c r="E772" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F772" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G772" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H772" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I772" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J772" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K772" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L772" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M772" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2">
+        <v>45186.720143125</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D773" s="3">
+        <v>2.0212932E7</v>
+      </c>
+      <c r="E773" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F773" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G773" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H773" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I773" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J773" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K773" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L773" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M773" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2">
+        <v>45186.73117511574</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D774" s="3">
+        <v>2.0222804E7</v>
+      </c>
+      <c r="E774" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F774" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G774" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H774" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I774" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J774" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K774" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L774" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M774" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2">
+        <v>45186.73781746528</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D775" s="3">
+        <v>2.023303E7</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F775" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G775" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H775" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I775" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J775" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K775" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L775" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M775" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2">
+        <v>45186.739750416666</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D776" s="3">
+        <v>2.0213955E7</v>
+      </c>
+      <c r="E776" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="F776" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G776" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H776" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I776" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J776" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K776" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L776" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M776" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2">
+        <v>45186.74207688657</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D777" s="3">
+        <v>2.0193532E7</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F777" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G777" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H777" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I777" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J777" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K777" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L777" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N777" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2">
+        <v>45186.74928266204</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D778" s="3">
+        <v>2.0203637E7</v>
+      </c>
+      <c r="E778" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F778" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G778" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H778" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I778" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J778" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K778" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L778" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N778" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2">
+        <v>45186.75280469908</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D779" s="3">
+        <v>2.023528E7</v>
+      </c>
+      <c r="E779" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F779" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G779" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H779" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I779" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J779" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K779" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L779" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M779" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2">
+        <v>45186.75543842593</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D780" s="3">
+        <v>2.0192638E7</v>
+      </c>
+      <c r="E780" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F780" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G780" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H780" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I780" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J780" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K780" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L780" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M780" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2">
+        <v>45186.75669050926</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D781" s="3">
+        <v>2.0192623E7</v>
+      </c>
+      <c r="E781" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F781" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G781" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H781" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I781" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J781" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K781" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L781" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N781" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2">
+        <v>45186.75776383102</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="D782" s="3">
+        <v>2.023292E7</v>
+      </c>
+      <c r="E782" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F782" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G782" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H782" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I782" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J782" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K782" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L782" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M782" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2">
+        <v>45186.77236190972</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D783" s="3">
+        <v>2.0217132E7</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F783" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G783" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H783" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I783" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J783" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K783" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L783" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M783" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2">
+        <v>45186.77338153935</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D784" s="3">
+        <v>2.0236722E7</v>
+      </c>
+      <c r="E784" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F784" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G784" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H784" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I784" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J784" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K784" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L784" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N784" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="2">
+        <v>45186.77362194445</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D785" s="3">
+        <v>2.0182136E7</v>
+      </c>
+      <c r="E785" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F785" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G785" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H785" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I785" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J785" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K785" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L785" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M785" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="2">
+        <v>45186.775031990735</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D786" s="3">
+        <v>2.0203406E7</v>
+      </c>
+      <c r="E786" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F786" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G786" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H786" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I786" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J786" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K786" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L786" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M786" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="2">
+        <v>45186.77547685185</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D787" s="3">
+        <v>2.0233247E7</v>
+      </c>
+      <c r="E787" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F787" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G787" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H787" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I787" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J787" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K787" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L787" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N787" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="2">
+        <v>45186.78269577546</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D788" s="3">
+        <v>2.0215154E7</v>
+      </c>
+      <c r="E788" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F788" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G788" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H788" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I788" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J788" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K788" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L788" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M788" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="2">
+        <v>45186.783666793985</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D789" s="3">
+        <v>2.0236771E7</v>
+      </c>
+      <c r="E789" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F789" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G789" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H789" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I789" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J789" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K789" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L789" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M789" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2">
+        <v>45186.7868278588</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D790" s="3">
+        <v>2.0172901E7</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F790" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G790" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H790" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I790" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J790" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K790" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L790" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M790" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2">
+        <v>45186.78979753472</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D791" s="3">
+        <v>2.0193316E7</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F791" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G791" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H791" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I791" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J791" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K791" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L791" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N791" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2">
+        <v>45186.79116945602</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D792" s="3">
+        <v>2.019287E7</v>
+      </c>
+      <c r="E792" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F792" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G792" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H792" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I792" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J792" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K792" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L792" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N792" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2">
+        <v>45186.791595104165</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D793" s="3">
+        <v>2.0221026E7</v>
+      </c>
+      <c r="E793" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F793" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G793" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H793" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I793" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J793" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K793" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L793" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N793" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="2">
+        <v>45186.79181599537</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D794" s="3">
+        <v>2.0233814E7</v>
+      </c>
+      <c r="E794" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F794" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G794" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H794" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I794" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J794" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K794" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L794" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N794" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="2">
+        <v>45186.794385925925</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D795" s="3">
+        <v>2.0231217E7</v>
+      </c>
+      <c r="E795" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F795" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G795" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H795" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I795" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J795" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K795" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L795" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N795" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2">
+        <v>45186.79452122685</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D796" s="3">
+        <v>2.0192213E7</v>
+      </c>
+      <c r="E796" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F796" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G796" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H796" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I796" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J796" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K796" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L796" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N796" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2">
+        <v>45186.79704800926</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D797" s="3">
+        <v>2.0232302E7</v>
+      </c>
+      <c r="E797" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F797" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G797" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H797" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I797" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J797" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K797" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L797" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M797" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2">
+        <v>45186.79797907408</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C798" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D798" s="3">
+        <v>2.017272E7</v>
+      </c>
+      <c r="E798" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F798" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G798" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H798" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I798" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J798" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K798" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L798" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M798" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2">
+        <v>45186.80209045139</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C799" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D799" s="3">
+        <v>2.0226717E7</v>
+      </c>
+      <c r="E799" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F799" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G799" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H799" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I799" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J799" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K799" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L799" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N799" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2">
+        <v>45186.81039048611</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C800" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D800" s="3">
+        <v>2.0222432E7</v>
+      </c>
+      <c r="E800" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F800" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G800" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H800" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I800" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J800" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K800" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L800" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M800" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2">
+        <v>45186.81162768519</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C801" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D801" s="3">
+        <v>2.0233736E7</v>
+      </c>
+      <c r="E801" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F801" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G801" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H801" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I801" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J801" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K801" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L801" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M801" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2">
+        <v>45186.81758685185</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C802" s="3">
+        <v>2.0236645E7</v>
+      </c>
+      <c r="D802" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E802" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F802" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G802" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H802" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I802" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J802" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K802" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L802" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M802" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2">
+        <v>45186.82045061342</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D803" s="3">
+        <v>2.0232354E7</v>
+      </c>
+      <c r="E803" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F803" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G803" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H803" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I803" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J803" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K803" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L803" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N803" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2">
+        <v>45186.8256146412</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D804" s="3">
+        <v>2.0233013E7</v>
+      </c>
+      <c r="E804" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F804" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G804" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H804" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I804" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J804" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K804" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L804" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M804" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2">
+        <v>45186.83068084491</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D805" s="3">
+        <v>2.0233215E7</v>
+      </c>
+      <c r="E805" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F805" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G805" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H805" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I805" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J805" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K805" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L805" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M805" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2">
+        <v>45186.83781924768</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D806" s="3">
+        <v>2.0233224E7</v>
+      </c>
+      <c r="E806" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F806" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G806" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H806" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I806" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J806" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K806" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L806" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M806" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="2">
+        <v>45186.84177506945</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D807" s="3">
+        <v>2.0226419E7</v>
+      </c>
+      <c r="E807" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F807" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G807" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H807" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I807" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J807" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K807" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L807" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M807" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2">
+        <v>45186.853807604166</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C808" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D808" s="3">
+        <v>2.0197132E7</v>
+      </c>
+      <c r="E808" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F808" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G808" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H808" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I808" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J808" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K808" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L808" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N808" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2">
+        <v>45186.855498171295</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C809" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D809" s="3">
+        <v>2.021662E7</v>
+      </c>
+      <c r="E809" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F809" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G809" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H809" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I809" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J809" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K809" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L809" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N809" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2">
+        <v>45186.8586037037</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D810" s="3">
+        <v>2.0232902E7</v>
+      </c>
+      <c r="E810" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F810" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G810" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H810" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I810" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J810" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K810" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L810" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M810" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2">
+        <v>45186.86013927084</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C811" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D811" s="3">
+        <v>2.0236718E7</v>
+      </c>
+      <c r="E811" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F811" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G811" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H811" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I811" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J811" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K811" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L811" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N811" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2">
+        <v>45186.86117758101</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C812" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D812" s="3">
+        <v>2.0235188E7</v>
+      </c>
+      <c r="E812" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F812" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G812" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H812" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I812" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J812" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K812" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L812" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M812" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2">
+        <v>45186.86198055556</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C813" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D813" s="3">
+        <v>2.0232357E7</v>
+      </c>
+      <c r="E813" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F813" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G813" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H813" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I813" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J813" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K813" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L813" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N813" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2">
+        <v>45186.86405642361</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C814" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D814" s="3">
+        <v>2.0233353E7</v>
+      </c>
+      <c r="E814" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F814" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G814" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H814" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I814" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J814" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K814" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L814" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M814" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2">
+        <v>45186.86520212963</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C815" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D815" s="3">
+        <v>2.023524E7</v>
+      </c>
+      <c r="E815" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F815" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G815" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H815" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I815" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J815" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K815" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L815" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M815" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2">
+        <v>45186.86709510417</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D816" s="3">
+        <v>2.0233232E7</v>
+      </c>
+      <c r="E816" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F816" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G816" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H816" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I816" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J816" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K816" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L816" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N816" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2">
+        <v>45186.86908921297</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D817" s="3">
+        <v>2.0236296E7</v>
+      </c>
+      <c r="E817" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F817" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G817" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H817" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I817" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J817" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K817" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L817" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N817" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2">
+        <v>45186.86967480324</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D818" s="3">
+        <v>2.0233817E7</v>
+      </c>
+      <c r="E818" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F818" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G818" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H818" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I818" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J818" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K818" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L818" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N818" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2">
+        <v>45186.870358518514</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D819" s="3">
+        <v>2.0232586E7</v>
+      </c>
+      <c r="E819" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F819" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G819" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H819" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I819" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J819" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K819" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L819" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M819" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2">
+        <v>45186.87455976852</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D820" s="3">
+        <v>2.0232737E7</v>
+      </c>
+      <c r="E820" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F820" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G820" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H820" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I820" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J820" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K820" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L820" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N820" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2">
+        <v>45186.875025243055</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D821" s="3">
+        <v>2.023323E7</v>
+      </c>
+      <c r="E821" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F821" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G821" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H821" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I821" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J821" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K821" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L821" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M821" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2">
+        <v>45186.88359572917</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C822" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D822" s="3">
+        <v>2.0201503E7</v>
+      </c>
+      <c r="E822" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F822" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G822" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H822" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I822" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J822" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K822" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L822" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M822" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2">
+        <v>45186.88815018519</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C823" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D823" s="3">
+        <v>2.0192818E7</v>
+      </c>
+      <c r="E823" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F823" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G823" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H823" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I823" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J823" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K823" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L823" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N823" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2">
+        <v>45186.88976959491</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C824" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D824" s="3">
+        <v>2.023123E7</v>
+      </c>
+      <c r="E824" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F824" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G824" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H824" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I824" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J824" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K824" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L824" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M824" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2">
+        <v>45186.90714542824</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C825" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D825" s="3">
+        <v>2.0222579E7</v>
+      </c>
+      <c r="E825" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F825" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G825" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H825" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I825" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J825" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K825" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L825" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M825" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2">
+        <v>45186.91017278935</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C826" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D826" s="3">
+        <v>2.0236728E7</v>
+      </c>
+      <c r="E826" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F826" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G826" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H826" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I826" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J826" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K826" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L826" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M826" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2">
+        <v>45186.9141757176</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C827" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D827" s="3">
+        <v>2.0232568E7</v>
+      </c>
+      <c r="E827" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F827" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G827" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H827" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I827" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J827" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K827" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L827" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N827" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2">
+        <v>45186.916054456015</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C828" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D828" s="3">
+        <v>2.0234147E7</v>
+      </c>
+      <c r="E828" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F828" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G828" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H828" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I828" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J828" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K828" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L828" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N828" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2">
+        <v>45186.91671068287</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C829" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D829" s="3">
+        <v>2.0232588E7</v>
+      </c>
+      <c r="E829" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F829" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G829" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H829" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I829" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J829" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K829" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L829" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N829" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2">
+        <v>45186.929043344906</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C830" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D830" s="3">
+        <v>2.0233025E7</v>
+      </c>
+      <c r="E830" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F830" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G830" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H830" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I830" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J830" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K830" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L830" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N830" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2">
+        <v>45186.930166516206</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C831" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D831" s="3">
+        <v>2.0232314E7</v>
+      </c>
+      <c r="E831" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="F831" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G831" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H831" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I831" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J831" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K831" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L831" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M831" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2">
+        <v>45186.93035188658</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C832" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D832" s="3">
+        <v>2.0221035E7</v>
+      </c>
+      <c r="E832" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F832" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G832" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H832" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I832" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J832" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K832" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L832" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M832" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2">
+        <v>45186.93090898148</v>
+      </c>
+      <c r="B833" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C833" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D833" s="3">
+        <v>2.0233703E7</v>
+      </c>
+      <c r="E833" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F833" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G833" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H833" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I833" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J833" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K833" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L833" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M833" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2">
+        <v>45186.93093032407</v>
+      </c>
+      <c r="B834" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C834" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D834" s="3">
+        <v>2.0233212E7</v>
+      </c>
+      <c r="E834" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F834" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G834" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H834" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I834" s="3">
+        <v>2021.0</v>
+      </c>
+      <c r="J834" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K834" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L834" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N834" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2">
+        <v>45186.93137667824</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C835" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="D835" s="3">
+        <v>2.0192241E7</v>
+      </c>
+      <c r="E835" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F835" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G835" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H835" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I835" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J835" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K835" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L835" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N835" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2">
+        <v>45186.93451490741</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C836" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D836" s="3">
+        <v>2.0235273E7</v>
+      </c>
+      <c r="E836" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F836" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G836" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H836" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I836" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J836" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K836" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L836" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M836" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2">
+        <v>45186.93521729167</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C837" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D837" s="3">
+        <v>2.0236227E7</v>
+      </c>
+      <c r="E837" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F837" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G837" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H837" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I837" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J837" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K837" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L837" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N837" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2">
+        <v>45186.94040954861</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D838" s="3">
+        <v>2.0191722E7</v>
+      </c>
+      <c r="E838" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F838" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G838" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H838" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I838" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J838" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K838" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L838" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N838" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2">
+        <v>45186.94065884259</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C839" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D839" s="3">
+        <v>2.0236761E7</v>
+      </c>
+      <c r="E839" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F839" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G839" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H839" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I839" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J839" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K839" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L839" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N839" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2">
+        <v>45186.94161658565</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C840" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D840" s="3">
+        <v>2.0233257E7</v>
+      </c>
+      <c r="E840" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F840" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G840" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H840" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I840" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J840" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K840" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L840" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N840" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2">
+        <v>45186.943911712966</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C841" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D841" s="3">
+        <v>2.0232549E7</v>
+      </c>
+      <c r="E841" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F841" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G841" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H841" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I841" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J841" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K841" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L841" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N841" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2">
+        <v>45186.9470609375</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C842" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D842" s="3">
+        <v>2.0172801E7</v>
+      </c>
+      <c r="E842" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F842" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G842" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H842" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I842" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J842" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K842" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L842" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N842" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2">
+        <v>45186.95064810185</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C843" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D843" s="3">
+        <v>2.0181717E7</v>
+      </c>
+      <c r="E843" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F843" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G843" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H843" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I843" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J843" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K843" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L843" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N843" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2">
+        <v>45186.96271043981</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D844" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F844" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G844" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H844" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I844" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J844" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K844" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L844" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M844" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2">
+        <v>45186.96439574074</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C845" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D845" s="3">
+        <v>2.0232332E7</v>
+      </c>
+      <c r="E845" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F845" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G845" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H845" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I845" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J845" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K845" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L845" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M845" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2">
+        <v>45186.96589177083</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C846" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D846" s="3">
+        <v>2.0226235E7</v>
+      </c>
+      <c r="E846" s="4" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F846" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G846" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H846" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I846" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J846" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K846" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L846" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M846" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2">
+        <v>45186.97259746528</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C847" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D847" s="3">
+        <v>2.0193917E7</v>
+      </c>
+      <c r="E847" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="F847" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G847" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H847" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I847" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J847" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K847" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L847" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M847" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2">
+        <v>45186.97710849537</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C848" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D848" s="3">
+        <v>2.0233843E7</v>
+      </c>
+      <c r="E848" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F848" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G848" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H848" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I848" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J848" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K848" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L848" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M848" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="2">
+        <v>45186.97763113426</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C849" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D849" s="3">
+        <v>2.0191731E7</v>
+      </c>
+      <c r="E849" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F849" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G849" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H849" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="I849" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J849" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K849" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L849" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M849" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="2">
+        <v>45186.98089012731</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C850" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D850" s="3">
+        <v>2.017542E7</v>
+      </c>
+      <c r="E850" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F850" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G850" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H850" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I850" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J850" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K850" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L850" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M850" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="2">
+        <v>45186.98207537037</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C851" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="D851" s="3">
+        <v>2.0233058E7</v>
+      </c>
+      <c r="E851" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F851" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G851" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H851" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I851" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="J851" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K851" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L851" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N851" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="2">
+        <v>45186.98377390046</v>
+      </c>
+      <c r="B852" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C852" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D852" s="3">
+        <v>2.0232961E7</v>
+      </c>
+      <c r="E852" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="F852" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G852" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H852" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I852" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J852" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K852" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L852" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M852" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="2">
+        <v>45186.985567800926</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C853" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D853" s="3">
+        <v>2.0222225E7</v>
+      </c>
+      <c r="E853" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F853" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G853" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H853" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="I853" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J853" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K853" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L853" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M853" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="2">
+        <v>45186.997205590276</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C854" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D854" s="3">
+        <v>2.018258E7</v>
+      </c>
+      <c r="E854" s="3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F854" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G854" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H854" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I854" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="J854" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K854" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L854" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N854" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="2">
+        <v>45186.9975894213</v>
+      </c>
+      <c r="B855" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C855" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D855" s="3">
+        <v>2.023124E7</v>
+      </c>
+      <c r="E855" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F855" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G855" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H855" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="I855" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="J855" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K855" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L855" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N855" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
